--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Cytl1</t>
   </si>
   <si>
     <t>Ccr2</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.29998485036557</v>
+        <v>1.3081455</v>
       </c>
       <c r="H2">
-        <v>1.29998485036557</v>
+        <v>2.616291</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4308754334831257</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3354258793821671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0502182348554785</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N2">
-        <v>0.0502182348554785</v>
+        <v>0.165998</v>
       </c>
       <c r="O2">
-        <v>0.0002089872941897447</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P2">
-        <v>0.0002089872941897447</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q2">
-        <v>0.06528294452422227</v>
+        <v>0.1085747683545</v>
       </c>
       <c r="R2">
-        <v>0.06528294452422227</v>
+        <v>0.434299073418</v>
       </c>
       <c r="S2">
-        <v>0.0002089872941897447</v>
+        <v>0.0001138037614946542</v>
       </c>
       <c r="T2">
-        <v>0.0002089872941897447</v>
+        <v>5.906923682862749E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.29998485036557</v>
+        <v>1.3081455</v>
       </c>
       <c r="H3">
-        <v>1.29998485036557</v>
+        <v>2.616291</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4308754334831257</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3354258793821671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>107.381304101442</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N3">
-        <v>107.381304101442</v>
+        <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.4468760850577424</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P3">
-        <v>0.4468760850577424</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q3">
-        <v>139.5940685443728</v>
+        <v>0.04428290541750001</v>
       </c>
       <c r="R3">
-        <v>139.5940685443728</v>
+        <v>0.2656974325050001</v>
       </c>
       <c r="S3">
-        <v>0.4468760850577424</v>
+        <v>4.641558331461668E-05</v>
       </c>
       <c r="T3">
-        <v>0.4468760850577424</v>
+        <v>3.613764229768591E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.29998485036557</v>
+        <v>1.3081455</v>
       </c>
       <c r="H4">
-        <v>1.29998485036557</v>
+        <v>2.616291</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4308754334831257</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3354258793821671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.71044520441</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N4">
-        <v>132.71044520441</v>
+        <v>408.296951</v>
       </c>
       <c r="O4">
-        <v>0.5522853786837219</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P4">
-        <v>0.5522853786837219</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q4">
-        <v>172.5215682510031</v>
+        <v>178.0372730381235</v>
       </c>
       <c r="R4">
-        <v>172.5215682510031</v>
+        <v>1068.223638228741</v>
       </c>
       <c r="S4">
-        <v>0.5522853786837219</v>
+        <v>0.1866116010658704</v>
       </c>
       <c r="T4">
-        <v>0.5522853786837219</v>
+        <v>0.1452896377969947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.3081455</v>
+      </c>
+      <c r="H5">
+        <v>2.616291</v>
+      </c>
+      <c r="I5">
+        <v>0.4308754334831257</v>
+      </c>
+      <c r="J5">
+        <v>0.3354258793821671</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N5">
+        <v>533.032654</v>
+      </c>
+      <c r="O5">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P5">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q5">
+        <v>232.428089227719</v>
+      </c>
+      <c r="R5">
+        <v>1394.568535366314</v>
+      </c>
+      <c r="S5">
+        <v>0.2436218951420239</v>
+      </c>
+      <c r="T5">
+        <v>0.1896759724606192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.3081455</v>
+      </c>
+      <c r="H6">
+        <v>2.616291</v>
+      </c>
+      <c r="I6">
+        <v>0.4308754334831257</v>
+      </c>
+      <c r="J6">
+        <v>0.3354258793821671</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.323258</v>
+      </c>
+      <c r="N6">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P6">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q6">
+        <v>0.4228684980390001</v>
+      </c>
+      <c r="R6">
+        <v>2.537210988234</v>
+      </c>
+      <c r="S6">
+        <v>0.0004432339706892725</v>
+      </c>
+      <c r="T6">
+        <v>0.0003450873509093206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.3081455</v>
+      </c>
+      <c r="H7">
+        <v>2.616291</v>
+      </c>
+      <c r="I7">
+        <v>0.4308754334831257</v>
+      </c>
+      <c r="J7">
+        <v>0.3354258793821671</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.028067</v>
+      </c>
+      <c r="N7">
+        <v>0.056134</v>
+      </c>
+      <c r="O7">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P7">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q7">
+        <v>0.03671571974850001</v>
+      </c>
+      <c r="R7">
+        <v>0.146862878994</v>
+      </c>
+      <c r="S7">
+        <v>3.848395973289389E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.997489451763381E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.727872333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.183617</v>
+      </c>
+      <c r="I8">
+        <v>0.5691245665168743</v>
+      </c>
+      <c r="J8">
+        <v>0.6645741206178329</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.08299899999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.165998</v>
+      </c>
+      <c r="O8">
+        <v>0.0002641221862538864</v>
+      </c>
+      <c r="P8">
+        <v>0.0001761022045687984</v>
+      </c>
+      <c r="Q8">
+        <v>0.1434116757943333</v>
+      </c>
+      <c r="R8">
+        <v>0.8604700547659999</v>
+      </c>
+      <c r="S8">
+        <v>0.0001503184247592322</v>
+      </c>
+      <c r="T8">
+        <v>0.0001170329677401709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.727872333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.183617</v>
+      </c>
+      <c r="I9">
+        <v>0.5691245665168743</v>
+      </c>
+      <c r="J9">
+        <v>0.6645741206178329</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.101555</v>
+      </c>
+      <c r="O9">
+        <v>0.0001077239027980797</v>
+      </c>
+      <c r="P9">
+        <v>0.000107736595531177</v>
+      </c>
+      <c r="Q9">
+        <v>0.05849135827055556</v>
+      </c>
+      <c r="R9">
+        <v>0.526422224435</v>
+      </c>
+      <c r="S9">
+        <v>6.130831948346299E-05</v>
+      </c>
+      <c r="T9">
+        <v>7.159895323349113E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.29998485036557</v>
-      </c>
-      <c r="H5">
-        <v>1.29998485036557</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.151276362838835</v>
-      </c>
-      <c r="N5">
-        <v>0.151276362838835</v>
-      </c>
-      <c r="O5">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="P5">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="Q5">
-        <v>0.1966569799088906</v>
-      </c>
-      <c r="R5">
-        <v>0.1966569799088906</v>
-      </c>
-      <c r="S5">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="T5">
-        <v>0.0006295489643460692</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.727872333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.183617</v>
+      </c>
+      <c r="I10">
+        <v>0.5691245665168743</v>
+      </c>
+      <c r="J10">
+        <v>0.6645741206178329</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N10">
+        <v>408.296951</v>
+      </c>
+      <c r="O10">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P10">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q10">
+        <v>235.1616684724185</v>
+      </c>
+      <c r="R10">
+        <v>2116.455016251767</v>
+      </c>
+      <c r="S10">
+        <v>0.2464871243762674</v>
+      </c>
+      <c r="T10">
+        <v>0.2878601181628282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.727872333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.183617</v>
+      </c>
+      <c r="I11">
+        <v>0.5691245665168743</v>
+      </c>
+      <c r="J11">
+        <v>0.6645741206178329</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N11">
+        <v>533.032654</v>
+      </c>
+      <c r="O11">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P11">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q11">
+        <v>307.0041252032797</v>
+      </c>
+      <c r="R11">
+        <v>2763.037126829518</v>
+      </c>
+      <c r="S11">
+        <v>0.3217895351932468</v>
+      </c>
+      <c r="T11">
+        <v>0.3758020783385324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.727872333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.183617</v>
+      </c>
+      <c r="I12">
+        <v>0.5691245665168743</v>
+      </c>
+      <c r="J12">
+        <v>0.6645741206178329</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.323258</v>
+      </c>
+      <c r="N12">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P12">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q12">
+        <v>0.5585485547286666</v>
+      </c>
+      <c r="R12">
+        <v>5.026936992557999</v>
+      </c>
+      <c r="S12">
+        <v>0.0005854484192679418</v>
+      </c>
+      <c r="T12">
+        <v>0.0006837162451189564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.727872333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.183617</v>
+      </c>
+      <c r="I13">
+        <v>0.5691245665168743</v>
+      </c>
+      <c r="J13">
+        <v>0.6645741206178329</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.028067</v>
+      </c>
+      <c r="N13">
+        <v>0.056134</v>
+      </c>
+      <c r="O13">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P13">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.04849619277966667</v>
+      </c>
+      <c r="R13">
+        <v>0.290977156678</v>
+      </c>
+      <c r="S13">
+        <v>5.083178384941231E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.957595037968382E-05</v>
       </c>
     </row>
   </sheetData>
